--- a/biology/Zoologie/Coriomeris_denticulatus/Coriomeris_denticulatus.xlsx
+++ b/biology/Zoologie/Coriomeris_denticulatus/Coriomeris_denticulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coriomeris denticulatus est une espèce d'insectes hémiptères du sous-ordre des hétéroptères (punaises), de la famille des Coreidae, de la sous-famille des Pseudophloeinae, et de la tribu des Pseudophloeini.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petite punaise brunâtre longue de 8,5 à 10 mm dont le corps est couvert de petites épines et dont le bord antérieur latéral du pronotum est garni de 10 à 12 grandes dents très rapprochées. Les antennes aux soies courtes sont constituées de 4 articles, le 3e de même longueur que le 2e. Fémurs postérieurs munis de 2 grandes dents et de petites, fémurs antérieurs et médians non dentés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petite punaise brunâtre longue de 8,5 à 10 mm dont le corps est couvert de petites épines et dont le bord antérieur latéral du pronotum est garni de 10 à 12 grandes dents très rapprochées. Les antennes aux soies courtes sont constituées de 4 articles, le 3e de même longueur que le 2e. Fémurs postérieurs munis de 2 grandes dents et de petites, fémurs antérieurs et médians non dentés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coriomeris denticulatus se trouve sur des sols secs, bien drainés où poussent des fabacées (légumineuses)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coriomeris denticulatus se trouve sur des sols secs, bien drainés où poussent des fabacées (légumineuses).
 </t>
         </is>
       </c>
